--- a/easy_tg_bot/utils/templates/text.xlsx
+++ b/easy_tg_bot/utils/templates/text.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t xml:space="preserve">TEXT INDEX</t>
   </si>
@@ -111,35 +111,10 @@
     <t xml:space="preserve">intro_video_language_choice</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Please choose a language for the intro video first 👇
+    <t xml:space="preserve">Please choose a language for the intro video first 👇
 Make sure intro_video_caption is filled in the bot text settings (.xlsx file).
 If you would like to remove the video, remove the corresponding intro_video_caption.
-*People who chose this language </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">on start</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> receive this video;</t>
-    </r>
+*People who chose this language on start receive this video;</t>
   </si>
   <si>
     <t xml:space="preserve">start_confirm_button</t>
@@ -164,12 +139,6 @@
   </si>
   <si>
     <t xml:space="preserve">Welcome!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start_confirm_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You’re in.</t>
   </si>
   <si>
     <t xml:space="preserve">language_choice</t>
@@ -198,6 +167,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">start_confirm_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are in.</t>
+  </si>
+  <si>
     <t xml:space="preserve">callback_error_message</t>
   </si>
   <si>
@@ -217,7 +192,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -258,11 +233,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -436,7 +406,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -607,31 +577,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/easy_tg_bot/utils/templates/text.xlsx
+++ b/easy_tg_bot/utils/templates/text.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="buttons and messages" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="user" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="admin" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t xml:space="preserve">TEXT INDEX</t>
   </si>
@@ -43,40 +44,96 @@
     <t xml:space="preserve">Go Back</t>
   </si>
   <si>
+    <t xml:space="preserve">start_confirm_button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not_confirm_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bye!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By pressing “I agree”…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">welcome_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">language_choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MarkDownV2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*Please choose a language*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 👇</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">start_confirm_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">help_message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Help Message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_menu_header </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin Menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_text_button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⚙️ General bot text settings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate_text_400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong formatting! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate_text_200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success!</t>
+  </si>
+  <si>
     <t xml:space="preserve">put_text_file_message</t>
   </si>
   <si>
     <t xml:space="preserve">Please send the edited file here 👇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">help_message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Help Message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin_menu_header </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin Menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add_text_button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⚙️ General bot text settings </t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate_text_400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrong formatting! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate_text_200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Success!</t>
   </si>
   <si>
     <t xml:space="preserve">put_intro_video_message</t>
@@ -117,34 +174,34 @@
 *People who chose this language on start receive this video;</t>
   </si>
   <si>
-    <t xml:space="preserve">start_confirm_button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I agree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not_confirm_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bye!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By pressing “I agree”…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">welcome_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">language_choice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MarkDownV2</t>
+    <t xml:space="preserve">admin_manage_users_header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please choose an action 👇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_manage_users_button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Admin(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add User(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del_user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete User(s)</t>
   </si>
   <si>
     <r>
@@ -154,35 +211,316 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">*Please choose a language*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 👇</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">start_confirm_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are in.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">callback_error_message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A callback error occurred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">update_error_message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A message error occurred</t>
+      <t xml:space="preserve">add_admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">_fail</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Error adding admin(s) :(</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">add_admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">_success</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin(s) added.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">add_admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">_text</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Please send a user_id or comma-separated list of user_ids 👇
+The admins will be added. 
+! To delete an admin, add them as a user. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">add_user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">_fail</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Error </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">adding user(s) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">add_user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">_success</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">User(s) added.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">add_user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">_text</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Please send a user_id or comma-separated list of user_ids 👇
+The users will be added. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">! To ban, delete the user(s) from the bot. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">del_user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">_fail</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Error </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">banning user(s) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">del_user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">_success</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Successfully banned user(s).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">del_user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">_text</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Please send a user_id or comma-separated list of user_ids 👇
+The users will be banned. 
+! To unban, add the user to the bot. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_must_be_a_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_id(s) must be integer(s)! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">open_bot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Bot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">close_bot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close Bot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bot_opened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bot is now open for all users who press /start.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bot_closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bot is now closed. 
+Add new users manually using /admin → “Manage users”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_users_by_role_menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Users</t>
   </si>
 </sst>
 </file>
@@ -314,16 +652,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -403,10 +741,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -452,10 +790,9 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -485,137 +822,76 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>29</v>
-      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="C16" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -626,4 +902,309 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="62.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.73"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/easy_tg_bot/utils/templates/text.xlsx
+++ b/easy_tg_bot/utils/templates/text.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
   <si>
     <t xml:space="preserve">TEXT INDEX</t>
   </si>
@@ -35,13 +35,10 @@
     <t xml:space="preserve">intro_video_caption</t>
   </si>
   <si>
-    <t xml:space="preserve">Intro Video Caption</t>
-  </si>
-  <si>
     <t xml:space="preserve">back_button</t>
   </si>
   <si>
-    <t xml:space="preserve">Go Back</t>
+    <t xml:space="preserve">Go back</t>
   </si>
   <si>
     <t xml:space="preserve">start_confirm_button</t>
@@ -103,19 +100,48 @@
     <t xml:space="preserve">help_message</t>
   </si>
   <si>
-    <t xml:space="preserve">Help Message</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">All the bot commands </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 👇
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+  - /help – the command list
+  - /start – change your language, start the bot</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">admin_menu_header </t>
   </si>
   <si>
-    <t xml:space="preserve">Admin Menu</t>
+    <t xml:space="preserve">ADMIN MENU</t>
   </si>
   <si>
     <t xml:space="preserve">add_text_button</t>
   </si>
   <si>
-    <t xml:space="preserve">⚙️ General bot text settings </t>
+    <t xml:space="preserve">⚙️  Language settings</t>
   </si>
   <si>
     <t xml:space="preserve">validate_text_400</t>
@@ -133,7 +159,8 @@
     <t xml:space="preserve">put_text_file_message</t>
   </si>
   <si>
-    <t xml:space="preserve">Please send the edited file here 👇</t>
+    <t xml:space="preserve">Please send the edited file here 👇
+! To add a language, add a corresponding column (at least in “user” sheet).</t>
   </si>
   <si>
     <t xml:space="preserve">put_intro_video_message</t>
@@ -145,7 +172,7 @@
     <t xml:space="preserve">add_intro_video_button</t>
   </si>
   <si>
-    <t xml:space="preserve">Add Intro Video</t>
+    <t xml:space="preserve">📺  Add intro video</t>
   </si>
   <si>
     <t xml:space="preserve">success_adding_video</t>
@@ -169,9 +196,9 @@
   </si>
   <si>
     <t xml:space="preserve">Please choose a language for the intro video first 👇
-Make sure intro_video_caption is filled in the bot text settings (.xlsx file).
+Make sure intro_video_caption is filled in the “Language settings” (.xlsx file).
 If you would like to remove the video, remove the corresponding intro_video_caption.
-*People who chose this language on start receive this video;</t>
+*People who chose this language on start will receive the video</t>
   </si>
   <si>
     <t xml:space="preserve">admin_manage_users_header</t>
@@ -183,25 +210,25 @@
     <t xml:space="preserve">admin_manage_users_button</t>
   </si>
   <si>
-    <t xml:space="preserve">Manage users</t>
+    <t xml:space="preserve">🧑  Manage users</t>
   </si>
   <si>
     <t xml:space="preserve">add_admin</t>
   </si>
   <si>
-    <t xml:space="preserve">Add Admin(s)</t>
+    <t xml:space="preserve">Add admin(s)</t>
   </si>
   <si>
     <t xml:space="preserve">add_user</t>
   </si>
   <si>
-    <t xml:space="preserve">Add User(s)</t>
+    <t xml:space="preserve">Add user(s)</t>
   </si>
   <si>
     <t xml:space="preserve">del_user</t>
   </si>
   <si>
-    <t xml:space="preserve">Delete User(s)</t>
+    <t xml:space="preserve">Ban user(s)</t>
   </si>
   <si>
     <r>
@@ -270,9 +297,36 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Please send a user_id or comma-separated list of user_ids 👇
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Please send a user_id or comma-separated list of user_ids 👇
 The admins will be added. 
-! To delete an admin, add them as a user. </t>
+! To delete an admin, add them as a user. 
+To get user_id of a telegram user, forward a message from the user to https://t.me/getmyid_bot, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">“Forwarded from” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">- ask the person to do it themselves and give you the user_id if you don’t see “Forwarded from” (most likely due to their privacy settings).</t>
+    </r>
   </si>
   <si>
     <r>
@@ -376,16 +430,26 @@
       </rPr>
       <t xml:space="preserve">Please send a user_id or comma-separated list of user_ids 👇
 The users will be added. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">! To ban, delete the user(s) from the bot. </t>
+! To ban, delete the user(s) from the bot. 
+To get user_id of a telegram user, forward a message from the user to https://t.me/getmyid_bot,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> “Forwarded from” – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">ask the person to do it themselves and give you the user_id if you don’t see “Forwarded from” (most likely due to their privacy settings).</t>
     </r>
   </si>
   <si>
@@ -489,19 +553,46 @@
     <t xml:space="preserve">id_must_be_a_number</t>
   </si>
   <si>
-    <t xml:space="preserve">User_id(s) must be integer(s)! </t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">User_id(s) must be integer(s)! 
+To get user_id of a telegram user, forward a message from the user to https://t.me/getmyid_bot,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> “Forwarded from”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> - ask the person to do it themselves and give you the user_id if you don’t see “Forwarded from” (most likely due to their privacy settings).</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">open_bot</t>
   </si>
   <si>
-    <t xml:space="preserve">Open Bot</t>
+    <t xml:space="preserve">Open bot</t>
   </si>
   <si>
     <t xml:space="preserve">close_bot</t>
   </si>
   <si>
-    <t xml:space="preserve">Close Bot</t>
+    <t xml:space="preserve">Close bot</t>
   </si>
   <si>
     <t xml:space="preserve">bot_opened</t>
@@ -520,7 +611,63 @@
     <t xml:space="preserve">get_users_by_role_menu</t>
   </si>
   <si>
-    <t xml:space="preserve">Get Users</t>
+    <t xml:space="preserve">See users…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_get_users_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_get_users_user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_get_users_banned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banned</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">admin_get_users_header_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">admin</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMINS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_get_users_header_user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_get_users_header_banned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANNED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_get_users_header</t>
   </si>
 </sst>
 </file>
@@ -652,12 +799,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -744,7 +891,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -772,77 +919,74 @@
         <v>3</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="47.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,21 +999,21 @@
       <c r="C16" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,10 +1053,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -937,265 +1081,321 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="93.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="93.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="70.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="B31" s="7"/>
+      <c r="C31" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="8" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>82</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/easy_tg_bot/utils/templates/text.xlsx
+++ b/easy_tg_bot/utils/templates/text.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" state="visible" r:id="rId2"/>
@@ -147,7 +147,26 @@
     <t xml:space="preserve">validate_text_400</t>
   </si>
   <si>
-    <t xml:space="preserve">Wrong formatting! </t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Wrong formatting! 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">! To add a language, add a corresponding column to all sheets of the file. 
+! The first language (column) must be fully filled, others not necessarily – for example, you can only fill “user” sheet, but also add that language as a column to the other sheets. 
+When a text is missing in the language, it will be taken from the first column, and if absent there - “404”.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">validate_text_200</t>
@@ -160,7 +179,7 @@
   </si>
   <si>
     <t xml:space="preserve">Please send the edited file here 👇
-! To add a language, add a corresponding column (at least in “user” sheet).</t>
+! To add a language, add a corresponding column to all sheets of the file. The first language (column) must be fully filled, others not necessarily – for example, you can only fill “user” sheet, but also add that language as a column to the other sheets.</t>
   </si>
   <si>
     <t xml:space="preserve">put_intro_video_message</t>
@@ -677,7 +696,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -718,6 +737,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -890,7 +914,7 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1055,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1095,11 +1119,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="47.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1111,7 +1135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>

--- a/easy_tg_bot/utils/templates/text.xlsx
+++ b/easy_tg_bot/utils/templates/text.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="121">
   <si>
     <t xml:space="preserve">TEXT INDEX</t>
   </si>
@@ -162,6 +162,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">! To add a language, add a corresponding column to all sheets of the file. 
 ! The first language (column) must be fully filled, others not necessarily – for example, you can only fill “user” sheet, but also add that language as a column to the other sheets. 
@@ -687,6 +688,120 @@
   </si>
   <si>
     <t xml:space="preserve">admin_get_users_header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mailing_users_button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">📥  Mailing users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mailing_input_message</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Please input your message </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 👇
+Can be a text/picture/video/document with/without caption.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">mailing_deliv_choice_message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please choose who to mail  👇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mailing_confirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">📨  Send </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mailing_confirm_message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send the message? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mailing_input_ids_message</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Input comma-separated telegram ids  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">👇</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">mailing_wrong_format_message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error :(
+Wrong message format.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all_users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only_users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only_admins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input id(s) manually…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_mailing_in_progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sending…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_mailing_done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✅  Mailing done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_mailing_error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">❌  Error mailing</t>
   </si>
 </sst>
 </file>
@@ -798,7 +913,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -833,6 +948,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -914,7 +1033,7 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1077,10 +1196,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1422,6 +1541,118 @@
         <v>81</v>
       </c>
     </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/easy_tg_bot/utils/templates/text.xlsx
+++ b/easy_tg_bot/utils/templates/text.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="admin" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="other" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="125">
   <si>
     <t xml:space="preserve">TEXT INDEX</t>
   </si>
@@ -802,6 +803,18 @@
   </si>
   <si>
     <t xml:space="preserve">❌  Error mailing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start_notification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*The bot is up again\!*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stop_notification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*The bot is down\.*</t>
   </si>
 </sst>
 </file>
@@ -868,14 +881,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAFD095"/>
-        <bgColor rgb="FFDDE8CB"/>
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFFFFFD7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8CB"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFFFD7"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -979,11 +992,11 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -1033,8 +1046,8 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1198,8 +1211,8 @@
   </sheetPr>
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1638,7 +1651,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -1646,7 +1659,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="5" t="s">
         <v>119</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -1662,4 +1675,123 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="62.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.73"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>